--- a/ATLAS-inventory/CORDEX/CORDEX_simulations_IPCC.xlsx
+++ b/ATLAS-inventory/CORDEX/CORDEX_simulations_IPCC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM" sheetId="1" state="visible" r:id="rId2"/>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">DOI:10.1007/s00382-020-05322-2</t>
   </si>
   <si>
-    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RUC-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RUC-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
+    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ESGF the model is labelled "ICTP-RegCM4-3_v4" and should be "RU-CORE-RegCM4-3_v4"; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables</t>
   </si>
   <si>
     <t xml:space="preserve">2006-2069</t>
@@ -705,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -752,13 +752,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -824,7 +817,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,10 +900,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -996,7 +985,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2449,8 +2438,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,7 +2833,7 @@
       <c r="K14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="0" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2984,9 +2973,6 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L14" r:id="rId1" display="In ESGF the model is labelled &quot;ICTP-RegCM4-3_v4&quot; and should be &quot;RUC-CORE-RegCM4-3_v4&quot;; (Acknowledgement: APN ARCP2015-04CMY-Tangang). Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php . Only historical and rcp45 experiments are available on ESGF for a few variables"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3005,7 +2991,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3573,7 +3559,7 @@
       <c r="K18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3915,7 +3901,7 @@
       <c r="K27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3955,10 +3941,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L27" r:id="rId2" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4915,8 +4897,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L73" activeCellId="0" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5562,7 +5544,7 @@
       <c r="K18" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AMF18" s="12"/>
@@ -6459,7 +6441,7 @@
       <c r="K39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L39" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AMF39" s="12"/>
@@ -6843,7 +6825,7 @@
       <c r="K48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AMF48" s="12"/>
@@ -7445,7 +7427,7 @@
       <c r="K62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="21" t="s">
+      <c r="L62" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AMF62" s="12"/>
@@ -7488,7 +7470,7 @@
       <c r="K63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="21" t="s">
+      <c r="L63" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AMF63" s="12"/>
@@ -7897,7 +7879,7 @@
       <c r="D73" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F73" s="13" t="s">
@@ -7906,19 +7888,19 @@
       <c r="G73" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="21" t="s">
         <v>43</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="21" t="s">
         <v>150</v>
       </c>
       <c r="K73" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="13" t="s">
+      <c r="L73" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7935,22 +7917,22 @@
       <c r="D74" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="21" t="s">
         <v>43</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="21" t="s">
         <v>150</v>
       </c>
       <c r="K74" s="13" t="s">
@@ -7961,14 +7943,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L39" r:id="rId2" display="Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L48" r:id="rId3" display="Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L62" r:id="rId4" display="Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L63" r:id="rId5" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L73" r:id="rId6" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7986,8 +7960,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8447,7 +8421,7 @@
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="0" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9093,7 +9067,7 @@
       <c r="K32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9668,10 +9642,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L15" r:id="rId1" display="Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L32" r:id="rId2" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9690,7 +9660,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10178,7 +10148,7 @@
       <c r="K16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10444,7 +10414,7 @@
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10753,10 +10723,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L16" r:id="rId1" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-    <hyperlink ref="L23" r:id="rId2" display="Warning: Problems with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10775,7 +10741,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10994,7 +10960,7 @@
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="0" t="s">
         <v>112</v>
       </c>
     </row>
@@ -11244,9 +11210,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" display="Warning: Potential problems (TBC) with CNRM-CM5_r1i1p1 6h forcing - https://www.umr-cnrm.fr/cmip5/spip.php"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ATLAS-inventory/CORDEX/CORDEX_simulations_IPCC.xlsx
+++ b/ATLAS-inventory/CORDEX/CORDEX_simulations_IPCC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.SAM-final" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="219">
   <si>
     <t xml:space="preserve">1: South America (SAM): https://cordex.org/domains/cordex-region-south-america-cordex/ </t>
   </si>
@@ -578,28 +578,25 @@
     <t xml:space="preserve">CCLM4-8-17-CLM3-5_v1</t>
   </si>
   <si>
+    <t xml:space="preserve">CCLM5-0-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLMcom-HZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF360J_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF360K_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCESS1-3_r1i1p1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACCESS1-0_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360L_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCESS1-3_r1i1p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCLM5-0-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLMcom-HZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360J_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRF360K_v1</t>
   </si>
   <si>
     <t xml:space="preserve">AUS-44i</t>
@@ -811,7 +808,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -838,10 +835,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -901,10 +894,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1931,7 +1920,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
@@ -1940,7 +1929,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2005,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>79</v>
@@ -2031,7 +2020,7 @@
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2043,13 +2032,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
@@ -2064,12 +2053,12 @@
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -2081,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -2107,7 +2096,7 @@
       <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2119,13 +2108,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>49</v>
@@ -2145,7 +2134,7 @@
       <c r="J9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2157,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
@@ -2183,7 +2172,7 @@
       <c r="J10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2195,13 +2184,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>49</v>
@@ -2221,7 +2210,7 @@
       <c r="J11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -2233,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
@@ -2259,7 +2248,7 @@
       <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2271,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -2297,7 +2286,7 @@
       <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2309,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -2335,8 +2324,8 @@
       <c r="J14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
+      <c r="K14" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>33</v>
@@ -2347,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -2373,8 +2362,8 @@
       <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>212</v>
+      <c r="K15" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>33</v>
@@ -2385,7 +2374,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
@@ -2411,8 +2400,8 @@
       <c r="J16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>212</v>
+      <c r="K16" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>33</v>
@@ -2444,10 +2433,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
@@ -2455,7 +2444,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2475,7 +2464,6 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="23"/>
       <c r="L3" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2521,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -2553,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
@@ -2585,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -2617,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>121</v>
@@ -2638,16 +2626,16 @@
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2655,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>123</v>
@@ -2676,13 +2664,13 @@
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2690,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2711,64 +2699,64 @@
         <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    </row>
+    <row r="12" s="12" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AMF12" s="15"/>
-      <c r="AMG12" s="15"/>
-      <c r="AMH12" s="15"/>
-      <c r="AMI12" s="15"/>
-      <c r="AMJ12" s="15"/>
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AMF12" s="14"/>
+      <c r="AMG12" s="14"/>
+      <c r="AMH12" s="14"/>
+      <c r="AMI12" s="14"/>
+      <c r="AMJ12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -2794,8 +2782,8 @@
       <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
+      <c r="K13" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>33</v>
@@ -2806,7 +2794,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>62</v>
@@ -2827,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2844,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -2859,22 +2847,22 @@
         <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2882,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -2914,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -2946,7 +2934,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
@@ -3000,7 +2988,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
@@ -3332,7 +3320,7 @@
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -3794,28 +3782,28 @@
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -3832,28 +3820,28 @@
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -3925,37 +3913,37 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3972,28 +3960,28 @@
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -4008,28 +3996,28 @@
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -4044,28 +4032,28 @@
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -4080,28 +4068,28 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4118,31 +4106,31 @@
       <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="13"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -4157,28 +4145,28 @@
       <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4195,28 +4183,28 @@
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4233,28 +4221,28 @@
       <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4271,28 +4259,28 @@
       <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4309,28 +4297,28 @@
       <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="F15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4347,28 +4335,28 @@
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4385,7 +4373,7 @@
       <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -4394,19 +4382,19 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4423,7 +4411,7 @@
       <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -4432,19 +4420,19 @@
       <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4461,7 +4449,7 @@
       <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4470,19 +4458,19 @@
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4499,7 +4487,7 @@
       <c r="D20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4508,19 +4496,19 @@
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4537,7 +4525,7 @@
       <c r="D21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4546,19 +4534,19 @@
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4575,7 +4563,7 @@
       <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -4584,19 +4572,19 @@
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4613,7 +4601,7 @@
       <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -4622,19 +4610,19 @@
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4651,28 +4639,28 @@
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -4687,28 +4675,28 @@
       <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4734,3042 +4722,3042 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="13" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="13" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="15" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="12" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="11" style="12" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="14" width="8.84"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="15" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AMF2" s="12"/>
-      <c r="AMG2" s="12"/>
-      <c r="AMH2" s="12"/>
-      <c r="AMI2" s="12"/>
-      <c r="AMJ2" s="12"/>
-    </row>
-    <row r="3" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="AMF2" s="11"/>
+      <c r="AMG2" s="11"/>
+      <c r="AMH2" s="11"/>
+      <c r="AMI2" s="11"/>
+      <c r="AMJ2" s="11"/>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="19" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="AMF3" s="12"/>
-      <c r="AMG3" s="12"/>
-      <c r="AMH3" s="12"/>
-      <c r="AMI3" s="12"/>
-      <c r="AMJ3" s="12"/>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMF4" s="12"/>
-      <c r="AMG4" s="12"/>
-      <c r="AMH4" s="12"/>
-      <c r="AMI4" s="12"/>
-      <c r="AMJ4" s="12"/>
-    </row>
-    <row r="5" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="J3" s="18"/>
+      <c r="AMF3" s="11"/>
+      <c r="AMG3" s="11"/>
+      <c r="AMH3" s="11"/>
+      <c r="AMI3" s="11"/>
+      <c r="AMJ3" s="11"/>
+    </row>
+    <row r="4" s="16" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMF4" s="11"/>
+      <c r="AMG4" s="11"/>
+      <c r="AMH4" s="11"/>
+      <c r="AMI4" s="11"/>
+      <c r="AMJ4" s="11"/>
+    </row>
+    <row r="5" s="15" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+    <row r="6" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF6" s="12"/>
-      <c r="AMG6" s="12"/>
-      <c r="AMH6" s="12"/>
-      <c r="AMI6" s="12"/>
-      <c r="AMJ6" s="12"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="L6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF6" s="11"/>
+      <c r="AMG6" s="11"/>
+      <c r="AMH6" s="11"/>
+      <c r="AMI6" s="11"/>
+      <c r="AMJ6" s="11"/>
+    </row>
+    <row r="7" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="F7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF7" s="12"/>
-      <c r="AMG7" s="12"/>
-      <c r="AMH7" s="12"/>
-      <c r="AMI7" s="12"/>
-      <c r="AMJ7" s="12"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="L7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF7" s="11"/>
+      <c r="AMG7" s="11"/>
+      <c r="AMH7" s="11"/>
+      <c r="AMI7" s="11"/>
+      <c r="AMJ7" s="11"/>
+    </row>
+    <row r="8" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF8" s="12"/>
-      <c r="AMG8" s="12"/>
-      <c r="AMH8" s="12"/>
-      <c r="AMI8" s="12"/>
-      <c r="AMJ8" s="12"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="L8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF8" s="11"/>
+      <c r="AMG8" s="11"/>
+      <c r="AMH8" s="11"/>
+      <c r="AMI8" s="11"/>
+      <c r="AMJ8" s="11"/>
+    </row>
+    <row r="9" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF9" s="12"/>
-      <c r="AMG9" s="12"/>
-      <c r="AMH9" s="12"/>
-      <c r="AMI9" s="12"/>
-      <c r="AMJ9" s="12"/>
-    </row>
-    <row r="10" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="L9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF9" s="11"/>
+      <c r="AMG9" s="11"/>
+      <c r="AMH9" s="11"/>
+      <c r="AMI9" s="11"/>
+      <c r="AMJ9" s="11"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="F10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF10" s="12"/>
-      <c r="AMG10" s="12"/>
-      <c r="AMH10" s="12"/>
-      <c r="AMI10" s="12"/>
-      <c r="AMJ10" s="12"/>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="L10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF10" s="11"/>
+      <c r="AMG10" s="11"/>
+      <c r="AMH10" s="11"/>
+      <c r="AMI10" s="11"/>
+      <c r="AMJ10" s="11"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="F11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF11" s="12"/>
-      <c r="AMG11" s="12"/>
-      <c r="AMH11" s="12"/>
-      <c r="AMI11" s="12"/>
-      <c r="AMJ11" s="12"/>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
+      <c r="L11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF11" s="11"/>
+      <c r="AMG11" s="11"/>
+      <c r="AMH11" s="11"/>
+      <c r="AMI11" s="11"/>
+      <c r="AMJ11" s="11"/>
+    </row>
+    <row r="12" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="F12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="J12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AMF12" s="12"/>
-      <c r="AMG12" s="12"/>
-      <c r="AMH12" s="12"/>
-      <c r="AMI12" s="12"/>
-      <c r="AMJ12" s="12"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="AMF12" s="11"/>
+      <c r="AMG12" s="11"/>
+      <c r="AMH12" s="11"/>
+      <c r="AMI12" s="11"/>
+      <c r="AMJ12" s="11"/>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="F13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF13" s="12"/>
-      <c r="AMG13" s="12"/>
-      <c r="AMH13" s="12"/>
-      <c r="AMI13" s="12"/>
-      <c r="AMJ13" s="12"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="J13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF13" s="11"/>
+      <c r="AMG13" s="11"/>
+      <c r="AMH13" s="11"/>
+      <c r="AMI13" s="11"/>
+      <c r="AMJ13" s="11"/>
+    </row>
+    <row r="14" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF14" s="12"/>
-      <c r="AMG14" s="12"/>
-      <c r="AMH14" s="12"/>
-      <c r="AMI14" s="12"/>
-      <c r="AMJ14" s="12"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
+      <c r="J14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF14" s="11"/>
+      <c r="AMG14" s="11"/>
+      <c r="AMH14" s="11"/>
+      <c r="AMI14" s="11"/>
+      <c r="AMJ14" s="11"/>
+    </row>
+    <row r="15" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="F15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF15" s="12"/>
-      <c r="AMG15" s="12"/>
-      <c r="AMH15" s="12"/>
-      <c r="AMI15" s="12"/>
-      <c r="AMJ15" s="12"/>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="J15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF15" s="11"/>
+      <c r="AMG15" s="11"/>
+      <c r="AMH15" s="11"/>
+      <c r="AMI15" s="11"/>
+      <c r="AMJ15" s="11"/>
+    </row>
+    <row r="16" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="F16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF16" s="12"/>
-      <c r="AMG16" s="12"/>
-      <c r="AMH16" s="12"/>
-      <c r="AMI16" s="12"/>
-      <c r="AMJ16" s="12"/>
-    </row>
-    <row r="17" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="J16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF16" s="11"/>
+      <c r="AMG16" s="11"/>
+      <c r="AMH16" s="11"/>
+      <c r="AMI16" s="11"/>
+      <c r="AMJ16" s="11"/>
+    </row>
+    <row r="17" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="F17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF17" s="12"/>
-      <c r="AMG17" s="12"/>
-      <c r="AMH17" s="12"/>
-      <c r="AMI17" s="12"/>
-      <c r="AMJ17" s="12"/>
-    </row>
-    <row r="18" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="J17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF17" s="11"/>
+      <c r="AMG17" s="11"/>
+      <c r="AMH17" s="11"/>
+      <c r="AMI17" s="11"/>
+      <c r="AMJ17" s="11"/>
+    </row>
+    <row r="18" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="F18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AMF18" s="12"/>
-      <c r="AMG18" s="12"/>
-      <c r="AMH18" s="12"/>
-      <c r="AMI18" s="12"/>
-      <c r="AMJ18" s="12"/>
-    </row>
-    <row r="19" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="AMF18" s="11"/>
+      <c r="AMG18" s="11"/>
+      <c r="AMH18" s="11"/>
+      <c r="AMI18" s="11"/>
+      <c r="AMJ18" s="11"/>
+    </row>
+    <row r="19" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="F19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="J19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AMF19" s="12"/>
-      <c r="AMG19" s="12"/>
-      <c r="AMH19" s="12"/>
-      <c r="AMI19" s="12"/>
-      <c r="AMJ19" s="12"/>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="AMF19" s="11"/>
+      <c r="AMG19" s="11"/>
+      <c r="AMH19" s="11"/>
+      <c r="AMI19" s="11"/>
+      <c r="AMJ19" s="11"/>
+    </row>
+    <row r="20" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="F20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="J20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF20" s="12"/>
-      <c r="AMG20" s="12"/>
-      <c r="AMH20" s="12"/>
-      <c r="AMI20" s="12"/>
-      <c r="AMJ20" s="12"/>
-    </row>
-    <row r="21" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="L20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF20" s="11"/>
+      <c r="AMG20" s="11"/>
+      <c r="AMH20" s="11"/>
+      <c r="AMI20" s="11"/>
+      <c r="AMJ20" s="11"/>
+    </row>
+    <row r="21" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="F21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF21" s="12"/>
-      <c r="AMG21" s="12"/>
-      <c r="AMH21" s="12"/>
-      <c r="AMI21" s="12"/>
-      <c r="AMJ21" s="12"/>
-    </row>
-    <row r="22" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="L21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF21" s="11"/>
+      <c r="AMG21" s="11"/>
+      <c r="AMH21" s="11"/>
+      <c r="AMI21" s="11"/>
+      <c r="AMJ21" s="11"/>
+    </row>
+    <row r="22" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="17" t="s">
+      <c r="F22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="17" t="s">
+      <c r="J22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF22" s="12"/>
-      <c r="AMG22" s="12"/>
-      <c r="AMH22" s="12"/>
-      <c r="AMI22" s="12"/>
-      <c r="AMJ22" s="12"/>
-    </row>
-    <row r="23" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="L22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF22" s="11"/>
+      <c r="AMG22" s="11"/>
+      <c r="AMH22" s="11"/>
+      <c r="AMI22" s="11"/>
+      <c r="AMJ22" s="11"/>
+    </row>
+    <row r="23" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="F23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMF23" s="12"/>
-      <c r="AMG23" s="12"/>
-      <c r="AMH23" s="12"/>
-      <c r="AMI23" s="12"/>
-      <c r="AMJ23" s="12"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="J23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMF23" s="11"/>
+      <c r="AMG23" s="11"/>
+      <c r="AMH23" s="11"/>
+      <c r="AMI23" s="11"/>
+      <c r="AMJ23" s="11"/>
+    </row>
+    <row r="24" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="F24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF24" s="12"/>
-      <c r="AMG24" s="12"/>
-      <c r="AMH24" s="12"/>
-      <c r="AMI24" s="12"/>
-      <c r="AMJ24" s="12"/>
-    </row>
-    <row r="25" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="J24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF24" s="11"/>
+      <c r="AMG24" s="11"/>
+      <c r="AMH24" s="11"/>
+      <c r="AMI24" s="11"/>
+      <c r="AMJ24" s="11"/>
+    </row>
+    <row r="25" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF25" s="12"/>
-      <c r="AMG25" s="12"/>
-      <c r="AMH25" s="12"/>
-      <c r="AMI25" s="12"/>
-      <c r="AMJ25" s="12"/>
-    </row>
-    <row r="26" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="J25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF25" s="11"/>
+      <c r="AMG25" s="11"/>
+      <c r="AMH25" s="11"/>
+      <c r="AMI25" s="11"/>
+      <c r="AMJ25" s="11"/>
+    </row>
+    <row r="26" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF26" s="12"/>
-      <c r="AMG26" s="12"/>
-      <c r="AMH26" s="12"/>
-      <c r="AMI26" s="12"/>
-      <c r="AMJ26" s="12"/>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="J26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF26" s="11"/>
+      <c r="AMG26" s="11"/>
+      <c r="AMH26" s="11"/>
+      <c r="AMI26" s="11"/>
+      <c r="AMJ26" s="11"/>
+    </row>
+    <row r="27" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="F27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF27" s="12"/>
-      <c r="AMG27" s="12"/>
-      <c r="AMH27" s="12"/>
-      <c r="AMI27" s="12"/>
-      <c r="AMJ27" s="12"/>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="J27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF27" s="11"/>
+      <c r="AMG27" s="11"/>
+      <c r="AMH27" s="11"/>
+      <c r="AMI27" s="11"/>
+      <c r="AMJ27" s="11"/>
+    </row>
+    <row r="28" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="17" t="s">
+      <c r="F28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF28" s="12"/>
-      <c r="AMG28" s="12"/>
-      <c r="AMH28" s="12"/>
-      <c r="AMI28" s="12"/>
-      <c r="AMJ28" s="12"/>
-    </row>
-    <row r="29" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="J28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF28" s="11"/>
+      <c r="AMG28" s="11"/>
+      <c r="AMH28" s="11"/>
+      <c r="AMI28" s="11"/>
+      <c r="AMJ28" s="11"/>
+    </row>
+    <row r="29" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF29" s="12"/>
-      <c r="AMG29" s="12"/>
-      <c r="AMH29" s="12"/>
-      <c r="AMI29" s="12"/>
-      <c r="AMJ29" s="12"/>
-    </row>
-    <row r="30" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="J29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF29" s="11"/>
+      <c r="AMG29" s="11"/>
+      <c r="AMH29" s="11"/>
+      <c r="AMI29" s="11"/>
+      <c r="AMJ29" s="11"/>
+    </row>
+    <row r="30" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="17" t="s">
+      <c r="F30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF30" s="12"/>
-      <c r="AMG30" s="12"/>
-      <c r="AMH30" s="12"/>
-      <c r="AMI30" s="12"/>
-      <c r="AMJ30" s="12"/>
-    </row>
-    <row r="31" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="J30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF30" s="11"/>
+      <c r="AMG30" s="11"/>
+      <c r="AMH30" s="11"/>
+      <c r="AMI30" s="11"/>
+      <c r="AMJ30" s="11"/>
+    </row>
+    <row r="31" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="F31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF31" s="12"/>
-      <c r="AMG31" s="12"/>
-      <c r="AMH31" s="12"/>
-      <c r="AMI31" s="12"/>
-      <c r="AMJ31" s="12"/>
-    </row>
-    <row r="32" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+      <c r="J31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF31" s="11"/>
+      <c r="AMG31" s="11"/>
+      <c r="AMH31" s="11"/>
+      <c r="AMI31" s="11"/>
+      <c r="AMJ31" s="11"/>
+    </row>
+    <row r="32" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="17" t="s">
+      <c r="F32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF32" s="12"/>
-      <c r="AMG32" s="12"/>
-      <c r="AMH32" s="12"/>
-      <c r="AMI32" s="12"/>
-      <c r="AMJ32" s="12"/>
-    </row>
-    <row r="33" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+      <c r="J32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF32" s="11"/>
+      <c r="AMG32" s="11"/>
+      <c r="AMH32" s="11"/>
+      <c r="AMI32" s="11"/>
+      <c r="AMJ32" s="11"/>
+    </row>
+    <row r="33" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="F33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF33" s="12"/>
-      <c r="AMG33" s="12"/>
-      <c r="AMH33" s="12"/>
-      <c r="AMI33" s="12"/>
-      <c r="AMJ33" s="12"/>
-    </row>
-    <row r="34" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="J33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF33" s="11"/>
+      <c r="AMG33" s="11"/>
+      <c r="AMH33" s="11"/>
+      <c r="AMI33" s="11"/>
+      <c r="AMJ33" s="11"/>
+    </row>
+    <row r="34" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="F34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF34" s="12"/>
-      <c r="AMG34" s="12"/>
-      <c r="AMH34" s="12"/>
-      <c r="AMI34" s="12"/>
-      <c r="AMJ34" s="12"/>
-    </row>
-    <row r="35" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="J34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF34" s="11"/>
+      <c r="AMG34" s="11"/>
+      <c r="AMH34" s="11"/>
+      <c r="AMI34" s="11"/>
+      <c r="AMJ34" s="11"/>
+    </row>
+    <row r="35" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="F35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF35" s="12"/>
-      <c r="AMG35" s="12"/>
-      <c r="AMH35" s="12"/>
-      <c r="AMI35" s="12"/>
-      <c r="AMJ35" s="12"/>
-    </row>
-    <row r="36" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="J35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF35" s="11"/>
+      <c r="AMG35" s="11"/>
+      <c r="AMH35" s="11"/>
+      <c r="AMI35" s="11"/>
+      <c r="AMJ35" s="11"/>
+    </row>
+    <row r="36" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="17" t="s">
+      <c r="F36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF36" s="12"/>
-      <c r="AMG36" s="12"/>
-      <c r="AMH36" s="12"/>
-      <c r="AMI36" s="12"/>
-      <c r="AMJ36" s="12"/>
-    </row>
-    <row r="37" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="J36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF36" s="11"/>
+      <c r="AMG36" s="11"/>
+      <c r="AMH36" s="11"/>
+      <c r="AMI36" s="11"/>
+      <c r="AMJ36" s="11"/>
+    </row>
+    <row r="37" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="17" t="s">
+      <c r="F37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF37" s="12"/>
-      <c r="AMG37" s="12"/>
-      <c r="AMH37" s="12"/>
-      <c r="AMI37" s="12"/>
-      <c r="AMJ37" s="12"/>
-    </row>
-    <row r="38" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="J37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF37" s="11"/>
+      <c r="AMG37" s="11"/>
+      <c r="AMH37" s="11"/>
+      <c r="AMI37" s="11"/>
+      <c r="AMJ37" s="11"/>
+    </row>
+    <row r="38" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="17" t="s">
+      <c r="F38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF38" s="12"/>
-      <c r="AMG38" s="12"/>
-      <c r="AMH38" s="12"/>
-      <c r="AMI38" s="12"/>
-      <c r="AMJ38" s="12"/>
-    </row>
-    <row r="39" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="J38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF38" s="11"/>
+      <c r="AMG38" s="11"/>
+      <c r="AMH38" s="11"/>
+      <c r="AMI38" s="11"/>
+      <c r="AMJ38" s="11"/>
+    </row>
+    <row r="39" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="17" t="s">
+      <c r="F39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="17" t="s">
+      <c r="J39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AMF39" s="12"/>
-      <c r="AMG39" s="12"/>
-      <c r="AMH39" s="12"/>
-      <c r="AMI39" s="12"/>
-      <c r="AMJ39" s="12"/>
-    </row>
-    <row r="40" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="AMF39" s="11"/>
+      <c r="AMG39" s="11"/>
+      <c r="AMH39" s="11"/>
+      <c r="AMI39" s="11"/>
+      <c r="AMJ39" s="11"/>
+    </row>
+    <row r="40" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="18" t="s">
+      <c r="G40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF40" s="12"/>
-      <c r="AMG40" s="12"/>
-      <c r="AMH40" s="12"/>
-      <c r="AMI40" s="12"/>
-      <c r="AMJ40" s="12"/>
-    </row>
-    <row r="41" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="n">
+      <c r="J40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF40" s="11"/>
+      <c r="AMG40" s="11"/>
+      <c r="AMH40" s="11"/>
+      <c r="AMI40" s="11"/>
+      <c r="AMJ40" s="11"/>
+    </row>
+    <row r="41" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="17" t="s">
+      <c r="G41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF41" s="12"/>
-      <c r="AMG41" s="12"/>
-      <c r="AMH41" s="12"/>
-      <c r="AMI41" s="12"/>
-      <c r="AMJ41" s="12"/>
-    </row>
-    <row r="42" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="n">
+      <c r="J41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF41" s="11"/>
+      <c r="AMG41" s="11"/>
+      <c r="AMH41" s="11"/>
+      <c r="AMI41" s="11"/>
+      <c r="AMJ41" s="11"/>
+    </row>
+    <row r="42" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="18" t="s">
+      <c r="F42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF42" s="12"/>
-      <c r="AMG42" s="12"/>
-      <c r="AMH42" s="12"/>
-      <c r="AMI42" s="12"/>
-      <c r="AMJ42" s="12"/>
-    </row>
-    <row r="43" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="n">
+      <c r="J42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF42" s="11"/>
+      <c r="AMG42" s="11"/>
+      <c r="AMH42" s="11"/>
+      <c r="AMI42" s="11"/>
+      <c r="AMJ42" s="11"/>
+    </row>
+    <row r="43" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" s="17" t="s">
+      <c r="F43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J43" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AMF43" s="12"/>
-      <c r="AMG43" s="12"/>
-      <c r="AMH43" s="12"/>
-      <c r="AMI43" s="12"/>
-      <c r="AMJ43" s="12"/>
-    </row>
-    <row r="44" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+      <c r="J43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMF43" s="11"/>
+      <c r="AMG43" s="11"/>
+      <c r="AMH43" s="11"/>
+      <c r="AMI43" s="11"/>
+      <c r="AMJ43" s="11"/>
+    </row>
+    <row r="44" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="17" t="s">
+      <c r="F44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF44" s="12"/>
-      <c r="AMG44" s="12"/>
-      <c r="AMH44" s="12"/>
-      <c r="AMI44" s="12"/>
-      <c r="AMJ44" s="12"/>
-    </row>
-    <row r="45" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="n">
+      <c r="J44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF44" s="11"/>
+      <c r="AMG44" s="11"/>
+      <c r="AMH44" s="11"/>
+      <c r="AMI44" s="11"/>
+      <c r="AMJ44" s="11"/>
+    </row>
+    <row r="45" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="17" t="s">
+      <c r="F45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF45" s="12"/>
-      <c r="AMG45" s="12"/>
-      <c r="AMH45" s="12"/>
-      <c r="AMI45" s="12"/>
-      <c r="AMJ45" s="12"/>
-    </row>
-    <row r="46" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="J45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF45" s="11"/>
+      <c r="AMG45" s="11"/>
+      <c r="AMH45" s="11"/>
+      <c r="AMI45" s="11"/>
+      <c r="AMJ45" s="11"/>
+    </row>
+    <row r="46" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="17" t="s">
+      <c r="F46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF46" s="12"/>
-      <c r="AMG46" s="12"/>
-      <c r="AMH46" s="12"/>
-      <c r="AMI46" s="12"/>
-      <c r="AMJ46" s="12"/>
-    </row>
-    <row r="47" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="n">
+      <c r="J46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF46" s="11"/>
+      <c r="AMG46" s="11"/>
+      <c r="AMH46" s="11"/>
+      <c r="AMI46" s="11"/>
+      <c r="AMJ46" s="11"/>
+    </row>
+    <row r="47" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="17" t="s">
+      <c r="F47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="J47" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF47" s="12"/>
-      <c r="AMG47" s="12"/>
-      <c r="AMH47" s="12"/>
-      <c r="AMI47" s="12"/>
-      <c r="AMJ47" s="12"/>
-    </row>
-    <row r="48" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
+      <c r="J47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF47" s="11"/>
+      <c r="AMG47" s="11"/>
+      <c r="AMH47" s="11"/>
+      <c r="AMI47" s="11"/>
+      <c r="AMJ47" s="11"/>
+    </row>
+    <row r="48" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="17" t="s">
+      <c r="F48" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="17" t="s">
+      <c r="J48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AMF48" s="12"/>
-      <c r="AMG48" s="12"/>
-      <c r="AMH48" s="12"/>
-      <c r="AMI48" s="12"/>
-      <c r="AMJ48" s="12"/>
-    </row>
-    <row r="49" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="AMF48" s="11"/>
+      <c r="AMG48" s="11"/>
+      <c r="AMH48" s="11"/>
+      <c r="AMI48" s="11"/>
+      <c r="AMJ48" s="11"/>
+    </row>
+    <row r="49" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="17" t="s">
+      <c r="F49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF49" s="12"/>
-      <c r="AMG49" s="12"/>
-      <c r="AMH49" s="12"/>
-      <c r="AMI49" s="12"/>
-      <c r="AMJ49" s="12"/>
-    </row>
-    <row r="50" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+      <c r="J49" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF49" s="11"/>
+      <c r="AMG49" s="11"/>
+      <c r="AMH49" s="11"/>
+      <c r="AMI49" s="11"/>
+      <c r="AMJ49" s="11"/>
+    </row>
+    <row r="50" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="17" t="s">
+      <c r="F50" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF50" s="12"/>
-      <c r="AMG50" s="12"/>
-      <c r="AMH50" s="12"/>
-      <c r="AMI50" s="12"/>
-      <c r="AMJ50" s="12"/>
-    </row>
-    <row r="51" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="n">
+      <c r="J50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF50" s="11"/>
+      <c r="AMG50" s="11"/>
+      <c r="AMH50" s="11"/>
+      <c r="AMI50" s="11"/>
+      <c r="AMJ50" s="11"/>
+    </row>
+    <row r="51" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="17" t="s">
+      <c r="F51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF51" s="12"/>
-      <c r="AMG51" s="12"/>
-      <c r="AMH51" s="12"/>
-      <c r="AMI51" s="12"/>
-      <c r="AMJ51" s="12"/>
-    </row>
-    <row r="52" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="n">
+      <c r="J51" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF51" s="11"/>
+      <c r="AMG51" s="11"/>
+      <c r="AMH51" s="11"/>
+      <c r="AMI51" s="11"/>
+      <c r="AMJ51" s="11"/>
+    </row>
+    <row r="52" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="17" t="s">
+      <c r="F52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J52" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF52" s="12"/>
-      <c r="AMG52" s="12"/>
-      <c r="AMH52" s="12"/>
-      <c r="AMI52" s="12"/>
-      <c r="AMJ52" s="12"/>
-    </row>
-    <row r="53" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="n">
+      <c r="J52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF52" s="11"/>
+      <c r="AMG52" s="11"/>
+      <c r="AMH52" s="11"/>
+      <c r="AMI52" s="11"/>
+      <c r="AMJ52" s="11"/>
+    </row>
+    <row r="53" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="17" t="s">
+      <c r="F53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J53" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF53" s="12"/>
-      <c r="AMG53" s="12"/>
-      <c r="AMH53" s="12"/>
-      <c r="AMI53" s="12"/>
-      <c r="AMJ53" s="12"/>
-    </row>
-    <row r="54" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="n">
+      <c r="J53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF53" s="11"/>
+      <c r="AMG53" s="11"/>
+      <c r="AMH53" s="11"/>
+      <c r="AMI53" s="11"/>
+      <c r="AMJ53" s="11"/>
+    </row>
+    <row r="54" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="17" t="s">
+      <c r="F54" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF54" s="12"/>
-      <c r="AMG54" s="12"/>
-      <c r="AMH54" s="12"/>
-      <c r="AMI54" s="12"/>
-      <c r="AMJ54" s="12"/>
-    </row>
-    <row r="55" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="J54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF54" s="11"/>
+      <c r="AMG54" s="11"/>
+      <c r="AMH54" s="11"/>
+      <c r="AMI54" s="11"/>
+      <c r="AMJ54" s="11"/>
+    </row>
+    <row r="55" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="17" t="s">
+      <c r="F55" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J55" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF55" s="12"/>
-      <c r="AMG55" s="12"/>
-      <c r="AMH55" s="12"/>
-      <c r="AMI55" s="12"/>
-      <c r="AMJ55" s="12"/>
-    </row>
-    <row r="56" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="n">
+      <c r="J55" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF55" s="11"/>
+      <c r="AMG55" s="11"/>
+      <c r="AMH55" s="11"/>
+      <c r="AMI55" s="11"/>
+      <c r="AMJ55" s="11"/>
+    </row>
+    <row r="56" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="18" t="s">
+      <c r="F56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I56" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J56" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="17" t="s">
+      <c r="J56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L56" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF56" s="12"/>
-      <c r="AMG56" s="12"/>
-      <c r="AMH56" s="12"/>
-      <c r="AMI56" s="12"/>
-      <c r="AMJ56" s="12"/>
-    </row>
-    <row r="57" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="n">
+      <c r="L56" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF56" s="11"/>
+      <c r="AMG56" s="11"/>
+      <c r="AMH56" s="11"/>
+      <c r="AMI56" s="11"/>
+      <c r="AMJ56" s="11"/>
+    </row>
+    <row r="57" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="18" t="s">
+      <c r="F57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J57" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="17" t="s">
+      <c r="J57" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="L57" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF57" s="12"/>
-      <c r="AMG57" s="12"/>
-      <c r="AMH57" s="12"/>
-      <c r="AMI57" s="12"/>
-      <c r="AMJ57" s="12"/>
-    </row>
-    <row r="58" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="n">
+      <c r="L57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF57" s="11"/>
+      <c r="AMG57" s="11"/>
+      <c r="AMH57" s="11"/>
+      <c r="AMI57" s="11"/>
+      <c r="AMJ57" s="11"/>
+    </row>
+    <row r="58" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="18" t="s">
+      <c r="F58" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I58" s="17" t="s">
+      <c r="I58" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L58" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF58" s="12"/>
-      <c r="AMG58" s="12"/>
-      <c r="AMH58" s="12"/>
-      <c r="AMI58" s="12"/>
-      <c r="AMJ58" s="12"/>
-    </row>
-    <row r="59" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="n">
+      <c r="L58" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF58" s="11"/>
+      <c r="AMG58" s="11"/>
+      <c r="AMH58" s="11"/>
+      <c r="AMI58" s="11"/>
+      <c r="AMJ58" s="11"/>
+    </row>
+    <row r="59" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="n">
         <v>54</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="18" t="s">
+      <c r="F59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J59" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="L59" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF59" s="12"/>
-      <c r="AMG59" s="12"/>
-      <c r="AMH59" s="12"/>
-      <c r="AMI59" s="12"/>
-      <c r="AMJ59" s="12"/>
-    </row>
-    <row r="60" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+      <c r="L59" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF59" s="11"/>
+      <c r="AMG59" s="11"/>
+      <c r="AMH59" s="11"/>
+      <c r="AMI59" s="11"/>
+      <c r="AMJ59" s="11"/>
+    </row>
+    <row r="60" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="n">
         <v>55</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="17" t="s">
+      <c r="F60" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="17" t="s">
+      <c r="J60" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L60" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF60" s="12"/>
-      <c r="AMG60" s="12"/>
-      <c r="AMH60" s="12"/>
-      <c r="AMI60" s="12"/>
-      <c r="AMJ60" s="12"/>
-    </row>
-    <row r="61" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
+      <c r="L60" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF60" s="11"/>
+      <c r="AMG60" s="11"/>
+      <c r="AMH60" s="11"/>
+      <c r="AMI60" s="11"/>
+      <c r="AMJ60" s="11"/>
+    </row>
+    <row r="61" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="n">
         <v>56</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I61" s="17" t="s">
+      <c r="F61" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="17" t="s">
+      <c r="J61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L61" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF61" s="12"/>
-      <c r="AMG61" s="12"/>
-      <c r="AMH61" s="12"/>
-      <c r="AMI61" s="12"/>
-      <c r="AMJ61" s="12"/>
-    </row>
-    <row r="62" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="n">
+      <c r="L61" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF61" s="11"/>
+      <c r="AMG61" s="11"/>
+      <c r="AMH61" s="11"/>
+      <c r="AMI61" s="11"/>
+      <c r="AMJ61" s="11"/>
+    </row>
+    <row r="62" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="n">
         <v>57</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" s="17" t="s">
+      <c r="F62" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J62" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" s="17" t="s">
+      <c r="J62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AMF62" s="12"/>
-      <c r="AMG62" s="12"/>
-      <c r="AMH62" s="12"/>
-      <c r="AMI62" s="12"/>
-      <c r="AMJ62" s="12"/>
-    </row>
-    <row r="63" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="n">
+      <c r="AMF62" s="11"/>
+      <c r="AMG62" s="11"/>
+      <c r="AMH62" s="11"/>
+      <c r="AMI62" s="11"/>
+      <c r="AMJ62" s="11"/>
+    </row>
+    <row r="63" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="n">
         <v>58</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="17" t="s">
+      <c r="F63" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J63" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" s="17" t="s">
+      <c r="J63" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AMF63" s="12"/>
-      <c r="AMG63" s="12"/>
-      <c r="AMH63" s="12"/>
-      <c r="AMI63" s="12"/>
-      <c r="AMJ63" s="12"/>
-    </row>
-    <row r="64" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="n">
+      <c r="AMF63" s="11"/>
+      <c r="AMG63" s="11"/>
+      <c r="AMH63" s="11"/>
+      <c r="AMI63" s="11"/>
+      <c r="AMJ63" s="11"/>
+    </row>
+    <row r="64" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I64" s="17" t="s">
+      <c r="F64" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J64" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF64" s="12"/>
-      <c r="AMG64" s="12"/>
-      <c r="AMH64" s="12"/>
-      <c r="AMI64" s="12"/>
-      <c r="AMJ64" s="12"/>
-    </row>
-    <row r="65" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="n">
+      <c r="J64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF64" s="11"/>
+      <c r="AMG64" s="11"/>
+      <c r="AMH64" s="11"/>
+      <c r="AMI64" s="11"/>
+      <c r="AMJ64" s="11"/>
+    </row>
+    <row r="65" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="17" t="s">
+      <c r="F65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF65" s="12"/>
-      <c r="AMG65" s="12"/>
-      <c r="AMH65" s="12"/>
-      <c r="AMI65" s="12"/>
-      <c r="AMJ65" s="12"/>
-    </row>
-    <row r="66" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="n">
+      <c r="J65" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF65" s="11"/>
+      <c r="AMG65" s="11"/>
+      <c r="AMH65" s="11"/>
+      <c r="AMI65" s="11"/>
+      <c r="AMJ65" s="11"/>
+    </row>
+    <row r="66" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="17" t="s">
+      <c r="F66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF66" s="12"/>
-      <c r="AMG66" s="12"/>
-      <c r="AMH66" s="12"/>
-      <c r="AMI66" s="12"/>
-      <c r="AMJ66" s="12"/>
-    </row>
-    <row r="67" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="n">
+      <c r="J66" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF66" s="11"/>
+      <c r="AMG66" s="11"/>
+      <c r="AMH66" s="11"/>
+      <c r="AMI66" s="11"/>
+      <c r="AMJ66" s="11"/>
+    </row>
+    <row r="67" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="n">
         <v>62</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I67" s="17" t="s">
+      <c r="F67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J67" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF67" s="12"/>
-      <c r="AMG67" s="12"/>
-      <c r="AMH67" s="12"/>
-      <c r="AMI67" s="12"/>
-      <c r="AMJ67" s="12"/>
-    </row>
-    <row r="68" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="n">
+      <c r="J67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF67" s="11"/>
+      <c r="AMG67" s="11"/>
+      <c r="AMH67" s="11"/>
+      <c r="AMI67" s="11"/>
+      <c r="AMJ67" s="11"/>
+    </row>
+    <row r="68" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="n">
         <v>63</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="17" t="s">
+      <c r="F68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF68" s="12"/>
-      <c r="AMG68" s="12"/>
-      <c r="AMH68" s="12"/>
-      <c r="AMI68" s="12"/>
-      <c r="AMJ68" s="12"/>
-    </row>
-    <row r="69" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="n">
+      <c r="J68" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF68" s="11"/>
+      <c r="AMG68" s="11"/>
+      <c r="AMH68" s="11"/>
+      <c r="AMI68" s="11"/>
+      <c r="AMJ68" s="11"/>
+    </row>
+    <row r="69" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="n">
         <v>64</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I69" s="17" t="s">
+      <c r="F69" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF69" s="12"/>
-      <c r="AMG69" s="12"/>
-      <c r="AMH69" s="12"/>
-      <c r="AMI69" s="12"/>
-      <c r="AMJ69" s="12"/>
-    </row>
-    <row r="70" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="n">
+      <c r="J69" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF69" s="11"/>
+      <c r="AMG69" s="11"/>
+      <c r="AMH69" s="11"/>
+      <c r="AMI69" s="11"/>
+      <c r="AMJ69" s="11"/>
+    </row>
+    <row r="70" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="n">
         <v>65</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="17" t="s">
+      <c r="F70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J70" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF70" s="12"/>
-      <c r="AMG70" s="12"/>
-      <c r="AMH70" s="12"/>
-      <c r="AMI70" s="12"/>
-      <c r="AMJ70" s="12"/>
-    </row>
-    <row r="71" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="n">
+      <c r="J70" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF70" s="11"/>
+      <c r="AMG70" s="11"/>
+      <c r="AMH70" s="11"/>
+      <c r="AMI70" s="11"/>
+      <c r="AMJ70" s="11"/>
+    </row>
+    <row r="71" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="n">
         <v>66</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I71" s="17" t="s">
+      <c r="F71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J71" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF71" s="12"/>
-      <c r="AMG71" s="12"/>
-      <c r="AMH71" s="12"/>
-      <c r="AMI71" s="12"/>
-      <c r="AMJ71" s="12"/>
-    </row>
-    <row r="72" s="17" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="n">
+      <c r="J71" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF71" s="11"/>
+      <c r="AMG71" s="11"/>
+      <c r="AMH71" s="11"/>
+      <c r="AMI71" s="11"/>
+      <c r="AMJ71" s="11"/>
+    </row>
+    <row r="72" s="16" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I72" s="17" t="s">
+      <c r="F72" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J72" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMF72" s="12"/>
-      <c r="AMG72" s="12"/>
-      <c r="AMH72" s="12"/>
-      <c r="AMI72" s="12"/>
-      <c r="AMJ72" s="12"/>
+      <c r="J72" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AMF72" s="11"/>
+      <c r="AMG72" s="11"/>
+      <c r="AMH72" s="11"/>
+      <c r="AMI72" s="11"/>
+      <c r="AMJ72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
+      <c r="A73" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="21" t="s">
+      <c r="F73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J73" s="21" t="s">
+      <c r="J73" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K73" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73" s="13" t="s">
+      <c r="K73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+      <c r="A74" s="12" t="n">
         <v>69</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="21" t="s">
+      <c r="G74" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="21" t="s">
+      <c r="J74" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="K74" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74" s="13" t="s">
+      <c r="K74" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8098,137 +8086,137 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" s="12" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AME12" s="15"/>
-      <c r="AMF12" s="15"/>
-      <c r="AMG12" s="15"/>
-      <c r="AMH12" s="15"/>
-      <c r="AMI12" s="15"/>
-      <c r="AMJ12" s="15"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AME12" s="14"/>
+      <c r="AMF12" s="14"/>
+      <c r="AMG12" s="14"/>
+      <c r="AMH12" s="14"/>
+      <c r="AMI12" s="14"/>
+      <c r="AMJ12" s="14"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AME13" s="15"/>
-      <c r="AMF13" s="15"/>
-      <c r="AMG13" s="15"/>
-      <c r="AMH13" s="15"/>
-      <c r="AMI13" s="15"/>
-      <c r="AMJ13" s="15"/>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="J13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AME13" s="14"/>
+      <c r="AMF13" s="14"/>
+      <c r="AMG13" s="14"/>
+      <c r="AMH13" s="14"/>
+      <c r="AMI13" s="14"/>
+      <c r="AMJ13" s="14"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AME14" s="15"/>
-      <c r="AMF14" s="15"/>
-      <c r="AMG14" s="15"/>
-      <c r="AMH14" s="15"/>
-      <c r="AMI14" s="15"/>
-      <c r="AMJ14" s="15"/>
+      <c r="J14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AME14" s="14"/>
+      <c r="AMF14" s="14"/>
+      <c r="AMG14" s="14"/>
+      <c r="AMH14" s="14"/>
+      <c r="AMI14" s="14"/>
+      <c r="AMJ14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -9180,49 +9168,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+    <row r="40" s="12" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="13" t="s">
+      <c r="F40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AME40" s="15"/>
-      <c r="AMF40" s="15"/>
-      <c r="AMG40" s="15"/>
-      <c r="AMH40" s="15"/>
-      <c r="AMI40" s="15"/>
-      <c r="AMJ40" s="15"/>
+      <c r="J40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AME40" s="14"/>
+      <c r="AMF40" s="14"/>
+      <c r="AMG40" s="14"/>
+      <c r="AMH40" s="14"/>
+      <c r="AMI40" s="14"/>
+      <c r="AMJ40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -9330,7 +9318,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="12" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.84"/>
@@ -9431,7 +9419,7 @@
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9466,7 +9454,7 @@
       <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9501,7 +9489,7 @@
       <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9536,7 +9524,7 @@
       <c r="J9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -9574,7 +9562,7 @@
       <c r="J10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -9612,7 +9600,7 @@
       <c r="J11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -9650,7 +9638,7 @@
       <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -9688,7 +9676,7 @@
       <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -9726,7 +9714,7 @@
       <c r="J14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -9764,7 +9752,7 @@
       <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -9802,7 +9790,7 @@
       <c r="J16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -9840,7 +9828,7 @@
       <c r="J17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -9878,7 +9866,7 @@
       <c r="J18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -9916,7 +9904,7 @@
       <c r="J19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -9954,7 +9942,7 @@
       <c r="J20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -9992,7 +9980,7 @@
       <c r="J21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="4" t="s">
         <v>171</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -10030,7 +10018,7 @@
       <c r="J22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -10068,7 +10056,7 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -10106,7 +10094,7 @@
       <c r="J24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -10144,7 +10132,7 @@
       <c r="J25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -10182,7 +10170,7 @@
       <c r="J26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -10220,7 +10208,7 @@
       <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -10258,7 +10246,7 @@
       <c r="J28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -10296,7 +10284,7 @@
       <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -10334,7 +10322,7 @@
       <c r="J30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -10372,7 +10360,7 @@
       <c r="J31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -10876,10 +10864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11268,28 +11256,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>23</v>
@@ -11306,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>23</v>
@@ -11347,25 +11335,25 @@
         <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>23</v>
@@ -11382,28 +11370,28 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>23</v>
@@ -11420,10 +11408,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>186</v>
@@ -11431,17 +11419,17 @@
       <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>23</v>
@@ -11461,10 +11449,10 @@
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>45</v>
@@ -11479,7 +11467,7 @@
         <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>23</v>
@@ -11499,10 +11487,10 @@
         <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>45</v>
@@ -11517,7 +11505,7 @@
         <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>23</v>
@@ -11537,10 +11525,10 @@
         <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>45</v>
@@ -11555,7 +11543,7 @@
         <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>23</v>
@@ -11575,10 +11563,10 @@
         <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>45</v>
@@ -11593,7 +11581,7 @@
         <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>23</v>
@@ -11605,33 +11593,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>23</v>
@@ -11639,264 +11627,190 @@
       <c r="K23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="J25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="J28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="17"/>
-    </row>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11915,7 +11829,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -11924,12 +11838,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="13" style="1" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="10.5"/>
@@ -11937,7 +11851,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12002,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>79</v>
@@ -12028,7 +11942,7 @@
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -12040,13 +11954,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>45</v>
@@ -12066,7 +11980,7 @@
       <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12075,13 +11989,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>45</v>
@@ -12101,7 +12015,7 @@
       <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12110,13 +12024,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>45</v>
@@ -12136,7 +12050,7 @@
       <c r="J9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12145,37 +12059,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12183,37 +12097,37 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12221,13 +12135,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>45</v>
@@ -12242,28 +12156,28 @@
         <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -12278,28 +12192,28 @@
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="17"/>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>45</v>
@@ -12314,28 +12228,28 @@
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="17"/>
+      <c r="K14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>45</v>
@@ -12350,28 +12264,28 @@
         <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="17"/>
+      <c r="K15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>45</v>
@@ -12386,15 +12300,15 @@
         <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="17"/>
+      <c r="K16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
